--- a/Code/Results/Cases/Case_2_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_117/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8148805499073433</v>
+        <v>0.2865685268086793</v>
       </c>
       <c r="C2">
-        <v>0.1073346434737203</v>
+        <v>0.04897208787983232</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3363192787966085</v>
+        <v>0.1637082793371789</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008123149145976616</v>
+        <v>0.002443763844237843</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8266483252901935</v>
+        <v>0.2588816154759286</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.576904359697231</v>
+        <v>0.2190209090369351</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.36630590143271</v>
+        <v>2.706722623918409</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7085472672297612</v>
+        <v>0.2543081462343935</v>
       </c>
       <c r="C3">
-        <v>0.09840271051131566</v>
+        <v>0.04591971149869067</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2926867595800218</v>
+        <v>0.1527014476912427</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008161791707856777</v>
+        <v>0.002446159046098492</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7222778632585261</v>
+        <v>0.2262455101951701</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4993632712376268</v>
+        <v>0.197160567764243</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.384527693838891</v>
+        <v>2.734905478134507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6433887182079729</v>
+        <v>0.2345051496715769</v>
       </c>
       <c r="C4">
-        <v>0.09291684523363841</v>
+        <v>0.04403359983195543</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2664086619878177</v>
+        <v>0.1460592999685133</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008186238223783637</v>
+        <v>0.002447706873416658</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.658243911929361</v>
+        <v>0.2061591229468434</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4521590149979602</v>
+        <v>0.1838068273700202</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.399629952298753</v>
+        <v>2.75396649619357</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6168580413180962</v>
+        <v>0.2264369429234421</v>
       </c>
       <c r="C5">
-        <v>0.09068019504004354</v>
+        <v>0.04326203958245145</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2558150921176079</v>
+        <v>0.1433815399569269</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008196385453257687</v>
+        <v>0.002448357087439793</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6321521179401373</v>
+        <v>0.1979621813880073</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4330100966600767</v>
+        <v>0.1783822919790268</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.406723379643111</v>
+        <v>2.762175173148051</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6124536644135219</v>
+        <v>0.2250973368183509</v>
       </c>
       <c r="C6">
-        <v>0.09030871395611229</v>
+        <v>0.04313374557222005</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2540625913302605</v>
+        <v>0.1429386431015871</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008198081686404908</v>
+        <v>0.002448466231829201</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6278194702164228</v>
+        <v>0.1966003986439517</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4298352794676035</v>
+        <v>0.1774825914512945</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.40795668628698</v>
+        <v>2.763564846066259</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6430308411692351</v>
+        <v>0.2343963316776012</v>
       </c>
       <c r="C7">
-        <v>0.09288668640010656</v>
+        <v>0.04402320619887234</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2662653456539701</v>
+        <v>0.1460230697597567</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008186374318881401</v>
+        <v>0.002447715563534969</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6578920312477408</v>
+        <v>0.2060486224427649</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4519004320526605</v>
+        <v>0.1837336004904699</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.399721872049327</v>
+        <v>2.754075415804309</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.778182969318749</v>
+        <v>0.2754443471152968</v>
       </c>
       <c r="C8">
-        <v>0.1042548042138094</v>
+        <v>0.04792213449003668</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3211597934991772</v>
+        <v>0.1598888912119421</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008136326217510601</v>
+        <v>0.002444573729695588</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7906447789716395</v>
+        <v>0.2476388223577715</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5500745577926978</v>
+        <v>0.2114692024292921</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.37174854592817</v>
+        <v>2.716075145327636</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.044788266333143</v>
+        <v>0.3559648970704359</v>
       </c>
       <c r="C9">
-        <v>0.12657059951826</v>
+        <v>0.05547143410115041</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4335490217024542</v>
+        <v>0.188012417002021</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008043697850739463</v>
+        <v>0.002439022193594522</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.051864982065297</v>
+        <v>0.3288044482970349</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7465481040175419</v>
+        <v>0.2664070789901629</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.350105997072802</v>
+        <v>2.655520537656031</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.242440838297398</v>
+        <v>0.4151257780972344</v>
       </c>
       <c r="C10">
-        <v>0.1430358792959083</v>
+        <v>0.06095727190802336</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5200303488666904</v>
+        <v>0.2092615246864753</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007978715138145414</v>
+        <v>0.002435311352219402</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.245087853100671</v>
+        <v>0.3881842087476457</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.894413026557956</v>
+        <v>0.3071142568907419</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.357654057987816</v>
+        <v>2.61957993469008</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.332942887048887</v>
+        <v>0.4420377402954898</v>
       </c>
       <c r="C11">
-        <v>0.1505553663583896</v>
+        <v>0.06343941120111651</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5604702210487602</v>
+        <v>0.2190597369055638</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007949750395973853</v>
+        <v>0.002433702275365839</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.333458358680645</v>
+        <v>0.4151403310059436</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9627129939582773</v>
+        <v>0.3257101776984115</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.366950093447599</v>
+        <v>2.605093791019215</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.367315996027116</v>
+        <v>0.4522281795919127</v>
       </c>
       <c r="C12">
-        <v>0.1534082611767928</v>
+        <v>0.06437736648614134</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5759644548725831</v>
+        <v>0.2227893081077994</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007938861801062627</v>
+        <v>0.002433104260176894</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.367006379782651</v>
+        <v>0.4253395248437641</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9887496316389175</v>
+        <v>0.3327632893757624</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.371383341165767</v>
+        <v>2.599876873644206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.359908307656525</v>
+        <v>0.4500335171306631</v>
       </c>
       <c r="C13">
-        <v>0.1527935773522415</v>
+        <v>0.06417544976144995</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5726190854872684</v>
+        <v>0.2219852204973023</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007941203409671274</v>
+        <v>0.002433232551456401</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.35977720513938</v>
+        <v>0.4231433313080117</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9831340800705561</v>
+        <v>0.3312437753392601</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.370386778502137</v>
+        <v>2.600988469570041</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.335768636264163</v>
+        <v>0.4428761271816768</v>
       </c>
       <c r="C14">
-        <v>0.1507899596164464</v>
+        <v>0.06351661725665281</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5617411868762048</v>
+        <v>0.2193661848071287</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007948853023891477</v>
+        <v>0.00243365284978266</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.336216593480259</v>
+        <v>0.4159795978210923</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9648514331161664</v>
+        <v>0.3262902160527759</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.367296099442285</v>
+        <v>2.604659203435403</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.320996203710138</v>
+        <v>0.4384919360317383</v>
       </c>
       <c r="C15">
-        <v>0.149563430608211</v>
+        <v>0.06311280436537459</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5551023721023682</v>
+        <v>0.2177644573480393</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007953548829133087</v>
+        <v>0.00243391176575172</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.321796482301181</v>
+        <v>0.4115904834184505</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9536760521560481</v>
+        <v>0.3232574823702024</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.365524048707329</v>
+        <v>2.606942643973611</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.236539610573431</v>
+        <v>0.41336696728888</v>
       </c>
       <c r="C16">
-        <v>0.1425451544101151</v>
+        <v>0.06079478436561203</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5174115015059826</v>
+        <v>0.2086238625162409</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007980619546462299</v>
+        <v>0.002435418094208472</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.239323484555399</v>
+        <v>0.3864213969766865</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8899723060856815</v>
+        <v>0.3059005414744931</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.357170367327228</v>
+        <v>2.62056419597576</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.184890903216683</v>
+        <v>0.3979531348144008</v>
       </c>
       <c r="C17">
-        <v>0.1382480106737063</v>
+        <v>0.05936928694701749</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4945862567575432</v>
+        <v>0.2030503506180352</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007997375120871929</v>
+        <v>0.002436362374610064</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.188861007346873</v>
+        <v>0.3709663078326173</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8511737816495355</v>
+        <v>0.2952726180772274</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.353595258852209</v>
+        <v>2.629398350601662</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.155238248396671</v>
+        <v>0.3890874743619577</v>
       </c>
       <c r="C18">
-        <v>0.1357790908895282</v>
+        <v>0.05854812065138049</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4815597714828854</v>
+        <v>0.1998570136699627</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008007068988244535</v>
+        <v>0.002436912939147206</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.159879753671476</v>
+        <v>0.362071702227837</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8289538041540396</v>
+        <v>0.2891670601101097</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.352086236945553</v>
+        <v>2.634654873619738</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.145207194443742</v>
+        <v>0.3860857223055518</v>
       </c>
       <c r="C19">
-        <v>0.1349435829980763</v>
+        <v>0.05826987336494938</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4771660914466977</v>
+        <v>0.1987779271254126</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008010361045693637</v>
+        <v>0.002437100630175984</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.150074189507109</v>
+        <v>0.359059254099293</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8214462750903309</v>
+        <v>0.2871010835466734</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.351667260416122</v>
+        <v>2.636464736946138</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.190383254242676</v>
+        <v>0.3995939701265172</v>
       </c>
       <c r="C20">
-        <v>0.1387051628200595</v>
+        <v>0.05952116413574515</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4970053306881681</v>
+        <v>0.203642375448517</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007995585655599831</v>
+        <v>0.002436261084823754</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.194228217222303</v>
+        <v>0.3726120747649304</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8552938572779922</v>
+        <v>0.2964032186020304</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.353918703539222</v>
+        <v>2.628439786419108</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.342856131407217</v>
+        <v>0.4449784442295481</v>
       </c>
       <c r="C21">
-        <v>0.1513783131991602</v>
+        <v>0.06371018639120507</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5649312005711167</v>
+        <v>0.2201349360889324</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007946604032254275</v>
+        <v>0.002433529091482304</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.343134500712608</v>
+        <v>0.4180839943650767</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9702165947705836</v>
+        <v>0.3277448912715712</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.368178540946417</v>
+        <v>2.60357372258153</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.44310925745981</v>
+        <v>0.4746364872434015</v>
       </c>
       <c r="C22">
-        <v>0.1596932339859904</v>
+        <v>0.0664364079856341</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6103888877242127</v>
+        <v>0.2310258049445508</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.00079150532835351</v>
+        <v>0.002431809459539285</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.440951617479357</v>
+        <v>0.4477527452445429</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.046345866342733</v>
+        <v>0.3482940118520546</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.382856730914824</v>
+        <v>2.588888662872023</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.389540994057569</v>
+        <v>0.4588078838820877</v>
       </c>
       <c r="C23">
-        <v>0.1552520209061754</v>
+        <v>0.0649824453449952</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5860219233164941</v>
+        <v>0.2252028148064937</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007931852383328782</v>
+        <v>0.002432721248689765</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.388693512842138</v>
+        <v>0.4319226763321922</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.005612359834373</v>
+        <v>0.3373205568535909</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.374507756268116</v>
+        <v>2.596582798637741</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.187900036315028</v>
+        <v>0.3988521610421856</v>
       </c>
       <c r="C24">
-        <v>0.1384984795488151</v>
+        <v>0.05945250552868231</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4959113698590087</v>
+        <v>0.2033746869375577</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007996394482967369</v>
+        <v>0.002436306854039146</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.191801608470058</v>
+        <v>0.3718680523743387</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8534309055948057</v>
+        <v>0.2958920598538484</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.353770777648862</v>
+        <v>2.628872599961824</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9724152606547989</v>
+        <v>0.3341805899470671</v>
       </c>
       <c r="C25">
-        <v>0.1205256550481693</v>
+        <v>0.05343966738962536</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4025368895570054</v>
+        <v>0.1803025310304918</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008068194731524874</v>
+        <v>0.002440459159533538</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9810274847542075</v>
+        <v>0.3068904131806676</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.69286452726692</v>
+        <v>0.2514851848127293</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.352088547808322</v>
+        <v>2.670403505629537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_117/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2865685268086793</v>
+        <v>0.8148805499072864</v>
       </c>
       <c r="C2">
-        <v>0.04897208787983232</v>
+        <v>0.1073346434742461</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1637082793371789</v>
+        <v>0.3363192787966227</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002443763844237843</v>
+        <v>0.0008123149145560227</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2588816154759286</v>
+        <v>0.8266483252901935</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2190209090369351</v>
+        <v>0.5769043596972239</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.706722623918409</v>
+        <v>1.366305901432682</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2543081462343935</v>
+        <v>0.7085472672296191</v>
       </c>
       <c r="C3">
-        <v>0.04591971149869067</v>
+        <v>0.09840271051160698</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1527014476912427</v>
+        <v>0.2926867595800573</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002446159046098492</v>
+        <v>0.0008161791707269198</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2262455101951701</v>
+        <v>0.7222778632585971</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.197160567764243</v>
+        <v>0.4993632712376126</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.734905478134507</v>
+        <v>1.384527693838947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2345051496715769</v>
+        <v>0.6433887182078593</v>
       </c>
       <c r="C4">
-        <v>0.04403359983195543</v>
+        <v>0.09291684523358157</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1460592999685133</v>
+        <v>0.2664086619877963</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002447706873416658</v>
+        <v>0.0008186238223784126</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2061591229468434</v>
+        <v>0.6582439119295316</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1838068273700202</v>
+        <v>0.4521590149979602</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.75396649619357</v>
+        <v>1.399629952298753</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2264369429234421</v>
+        <v>0.6168580413180393</v>
       </c>
       <c r="C5">
-        <v>0.04326203958245145</v>
+        <v>0.09068019504034197</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1433815399569269</v>
+        <v>0.255815092117551</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002448357087439793</v>
+        <v>0.0008196385453261479</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1979621813880073</v>
+        <v>0.6321521179402652</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1783822919790268</v>
+        <v>0.4330100966600554</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.762175173148051</v>
+        <v>1.406723379643068</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2250973368183509</v>
+        <v>0.6124536644134082</v>
       </c>
       <c r="C6">
-        <v>0.04313374557222005</v>
+        <v>0.09030871395680862</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1429386431015871</v>
+        <v>0.254062591330225</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002448466231829201</v>
+        <v>0.0008198081686237819</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1966003986439517</v>
+        <v>0.6278194702165507</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1774825914512945</v>
+        <v>0.4298352794675964</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.763564846066259</v>
+        <v>1.407956686286951</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2343963316776012</v>
+        <v>0.6430308411693204</v>
       </c>
       <c r="C7">
-        <v>0.04402320619887234</v>
+        <v>0.09288668640012077</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1460230697597567</v>
+        <v>0.2662653456540056</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002447715563534969</v>
+        <v>0.0008186374319639044</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2060486224427649</v>
+        <v>0.6578920312478118</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1837336004904699</v>
+        <v>0.4519004320526605</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.754075415804309</v>
+        <v>1.399721872049383</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2754443471152968</v>
+        <v>0.7781829693187206</v>
       </c>
       <c r="C8">
-        <v>0.04792213449003668</v>
+        <v>0.1042548042132552</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1598888912119421</v>
+        <v>0.3211597934991701</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002444573729695588</v>
+        <v>0.0008136326216731681</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2476388223577715</v>
+        <v>0.790644778971668</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2114692024292921</v>
+        <v>0.5500745577927333</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.716075145327636</v>
+        <v>1.371748545928114</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3559648970704359</v>
+        <v>1.044788266332944</v>
       </c>
       <c r="C9">
-        <v>0.05547143410115041</v>
+        <v>0.1265705995182316</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.188012417002021</v>
+        <v>0.4335490217024542</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002439022193594522</v>
+        <v>0.0008043697851312648</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3288044482970349</v>
+        <v>1.051864982065354</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2664070789901629</v>
+        <v>0.7465481040175348</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.655520537656031</v>
+        <v>1.350105997072873</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4151257780972344</v>
+        <v>1.242440838297341</v>
       </c>
       <c r="C10">
-        <v>0.06095727190802336</v>
+        <v>0.143035879295951</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2092615246864753</v>
+        <v>0.5200303488666762</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002435311352219402</v>
+        <v>0.0007978715138747222</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3881842087476457</v>
+        <v>1.245087853100756</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3071142568907419</v>
+        <v>0.8944130265579417</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.61957993469008</v>
+        <v>1.357654057987816</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4420377402954898</v>
+        <v>1.332942887048887</v>
       </c>
       <c r="C11">
-        <v>0.06343941120111651</v>
+        <v>0.1505553663586596</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2190597369055638</v>
+        <v>0.5604702210487602</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002433702275365839</v>
+        <v>0.0007949750396568473</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4151403310059436</v>
+        <v>1.333458358680502</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3257101776984115</v>
+        <v>0.9627129939582773</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.605093791019215</v>
+        <v>1.366950093447514</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4522281795919127</v>
+        <v>1.367315996027145</v>
       </c>
       <c r="C12">
-        <v>0.06437736648614134</v>
+        <v>0.1534082611768923</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2227893081077994</v>
+        <v>0.5759644548725618</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002433104260176894</v>
+        <v>0.0007938861800473143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4253395248437641</v>
+        <v>1.367006379782623</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3327632893757624</v>
+        <v>0.9887496316389317</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.599876873644206</v>
+        <v>1.371383341165767</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4500335171306631</v>
+        <v>1.359908307656468</v>
       </c>
       <c r="C13">
-        <v>0.06417544976144995</v>
+        <v>0.1527935773522415</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2219852204973023</v>
+        <v>0.5726190854872826</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002433232551456401</v>
+        <v>0.000794120340987466</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4231433313080117</v>
+        <v>1.35977720513938</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3312437753392601</v>
+        <v>0.9831340800705703</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.600988469570041</v>
+        <v>1.370386778502137</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4428761271816768</v>
+        <v>1.335768636263992</v>
       </c>
       <c r="C14">
-        <v>0.06351661725665281</v>
+        <v>0.1507899596166027</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2193661848071287</v>
+        <v>0.5617411868762119</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00243365284978266</v>
+        <v>0.0007948853023890812</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4159795978210923</v>
+        <v>1.336216593480174</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3262902160527759</v>
+        <v>0.9648514331161664</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.604659203435403</v>
+        <v>1.367296099442285</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4384919360317383</v>
+        <v>1.320996203710138</v>
       </c>
       <c r="C15">
-        <v>0.06311280436537459</v>
+        <v>0.1495634306082962</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2177644573480393</v>
+        <v>0.5551023721023682</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.00243391176575172</v>
+        <v>0.0007953548828547596</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4115904834184505</v>
+        <v>1.321796482301153</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3232574823702024</v>
+        <v>0.9536760521560268</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.606942643973611</v>
+        <v>1.365524048707329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.41336696728888</v>
+        <v>1.236539610573459</v>
       </c>
       <c r="C16">
-        <v>0.06079478436561203</v>
+        <v>0.1425451544096603</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2086238625162409</v>
+        <v>0.5174115015059613</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002435418094208472</v>
+        <v>0.0007980619546086142</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3864213969766865</v>
+        <v>1.239323484555342</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3059005414744931</v>
+        <v>0.8899723060856886</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.62056419597576</v>
+        <v>1.357170367327171</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3979531348144008</v>
+        <v>1.184890903216711</v>
       </c>
       <c r="C17">
-        <v>0.05936928694701749</v>
+        <v>0.1382480106739621</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2030503506180352</v>
+        <v>0.494586256757529</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002436362374610064</v>
+        <v>0.0007997375121450836</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3709663078326173</v>
+        <v>1.188861007346787</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2952726180772274</v>
+        <v>0.8511737816495284</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.629398350601662</v>
+        <v>1.353595258852181</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3890874743619577</v>
+        <v>1.155238248396557</v>
       </c>
       <c r="C18">
-        <v>0.05854812065138049</v>
+        <v>0.1357790908893719</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1998570136699627</v>
+        <v>0.481559771482857</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002436912939147206</v>
+        <v>0.0008007068988443725</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.362071702227837</v>
+        <v>1.159879753671362</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2891670601101097</v>
+        <v>0.8289538041540396</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.634654873619738</v>
+        <v>1.352086236945581</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3860857223055518</v>
+        <v>1.145207194443742</v>
       </c>
       <c r="C19">
-        <v>0.05826987336494938</v>
+        <v>0.1349435829978631</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1987779271254126</v>
+        <v>0.4771660914466906</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002437100630175984</v>
+        <v>0.000801036104570047</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.359059254099293</v>
+        <v>1.150074189507251</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2871010835466734</v>
+        <v>0.8214462750903095</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.636464736946138</v>
+        <v>1.351667260416093</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3995939701265172</v>
+        <v>1.19038325424259</v>
       </c>
       <c r="C20">
-        <v>0.05952116413574515</v>
+        <v>0.1387051628206706</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.203642375448517</v>
+        <v>0.4970053306881752</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002436261084823754</v>
+        <v>0.0007995585655592934</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3726120747649304</v>
+        <v>1.194228217222332</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2964032186020304</v>
+        <v>0.8552938572779922</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.628439786419108</v>
+        <v>1.353918703539193</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4449784442295481</v>
+        <v>1.342856131407302</v>
       </c>
       <c r="C21">
-        <v>0.06371018639120507</v>
+        <v>0.1513783131993875</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2201349360889324</v>
+        <v>0.5649312005710456</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002433529091482304</v>
+        <v>0.0007946604032824374</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4180839943650767</v>
+        <v>1.343134500712722</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3277448912715712</v>
+        <v>0.9702165947705765</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.60357372258153</v>
+        <v>1.368178540946417</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4746364872434015</v>
+        <v>1.44310925745981</v>
       </c>
       <c r="C22">
-        <v>0.0664364079856341</v>
+        <v>0.1596932339861326</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2310258049445508</v>
+        <v>0.6103888877242269</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002431809459539285</v>
+        <v>0.0007915053283735709</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4477527452445429</v>
+        <v>1.440951617479442</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3482940118520546</v>
+        <v>1.046345866342719</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.588888662872023</v>
+        <v>1.382856730914909</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4588078838820877</v>
+        <v>1.389540994057626</v>
       </c>
       <c r="C23">
-        <v>0.0649824453449952</v>
+        <v>0.1552520209063317</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2252028148064937</v>
+        <v>0.5860219233164798</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002432721248689765</v>
+        <v>0.0007931852383526851</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4319226763321922</v>
+        <v>1.38869351284211</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3373205568535909</v>
+        <v>1.005612359834359</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.596582798637741</v>
+        <v>1.374507756268116</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3988521610421856</v>
+        <v>1.187900036314971</v>
       </c>
       <c r="C24">
-        <v>0.05945250552868231</v>
+        <v>0.1384984795490425</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2033746869375577</v>
+        <v>0.4959113698589945</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002436306854039146</v>
+        <v>0.0007996394482987852</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3718680523743387</v>
+        <v>1.191801608470115</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2958920598538484</v>
+        <v>0.8534309055947986</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.628872599961824</v>
+        <v>1.353770777648833</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3341805899470671</v>
+        <v>0.9724152606545715</v>
       </c>
       <c r="C25">
-        <v>0.05343966738962536</v>
+        <v>0.1205256550477145</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1803025310304918</v>
+        <v>0.4025368895569983</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002440459159533538</v>
+        <v>0.0008068194730955364</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3068904131806676</v>
+        <v>0.981027484754037</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2514851848127293</v>
+        <v>0.69286452726692</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.670403505629537</v>
+        <v>1.352088547808265</v>
       </c>
     </row>
   </sheetData>
